--- a/biology/Botanique/Platanthera_blephariglottis/Platanthera_blephariglottis.xlsx
+++ b/biology/Botanique/Platanthera_blephariglottis/Platanthera_blephariglottis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Platanthère à gorge frangée
 La platanthère à gorge frangée (Platanthera blephariglottis) est une espèce d'orchidées du genre Platanthera de l'Est de l'Amérique du Nord. Elle est considérée comme une espèce menacée au Connecticut, en Ohio, en Floride, au Maryland et au Rhode Island; comme espèce sensible à l'exploitation dans l'État de New York et comme espèce susceptible d'être désignée menacée ou vulnérable au Québec. 
@@ -512,14 +524,16 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (8 novembre 2015)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (8 novembre 2015) :
 variété Platanthera blephariglottis var. blephariglottis
 variété Platanthera blephariglottis var. conspicua
-Selon The Plant List            (8 novembre 2015)[3] :
+Selon The Plant List            (8 novembre 2015) :
 variété Platanthera blephariglottis var. conspicua (Nash) Luer
-Selon Tropicos                                           (8 novembre 2015)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (8 novembre 2015) (Attention liste brute contenant possiblement des synonymes) :
 variété Platanthera blephariglottis var. blephariglottis
 variété Platanthera blephariglottis var. conspicua (Nash) Luer
 variété Platanthera blephariglottis var. holopetala (Lindl.) Torr.</t>
